--- a/Data Cleaning Excel.xlsx
+++ b/Data Cleaning Excel.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98322DC-0492-473F-84C2-7A6C794E5FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
     <sheet name="Working Sheet" sheetId="2" r:id="rId2"/>
     <sheet name="Final Output" sheetId="3" r:id="rId3"/>
+    <sheet name="BONUS" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BONUS!$A$57:$G$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Final Output'!$A$1:$G$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Working Sheet'!$A$1:$K$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MSI</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0">
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -215,12 +219,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MSI</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -344,8 +348,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="151">
   <si>
     <t>S.No.</t>
   </si>
@@ -780,17 +806,35 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Search Bar:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,8 +988,17 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,6 +1178,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1286,13 +1345,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="18" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="8" xfId="18" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="9" borderId="8" xfId="18" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1349,6 +1417,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>137160</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="TextBox1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1647,7 +1782,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -3060,7 +3196,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4815,7 +4952,7 @@
       <c r="I48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K48"/>
+  <autoFilter ref="A1:K48" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4824,11 +4961,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5925,10 +6063,1198 @@
       <c r="E48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G48"/>
+  <autoFilter ref="A1:G48" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="23.5546875" style="3"/>
+    <col min="6" max="7" width="23.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" cm="1">
+        <f t="array" ref="A8:G53">_xlfn._xlws.FILTER('Final Output'!A2:G47,LEFT('Final Output'!B2:B47,LEN(C4))=C4,"None")</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <v>George Washington</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <v>Nonpartisan</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <v>John Adams</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G8" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <v>John Adams</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <v>Federalist</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <v>Thomas Jefferson</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G9" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <v>Thomas Jefferson</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <v>Democratic-  Republican</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <v>Aaron Burr</v>
+      </c>
+      <c r="E10" s="7">
+        <v>15000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G10" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <v>James Madison</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <v>Democratic-  Republican</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <v>George Clinton</v>
+      </c>
+      <c r="E11" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G11" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <v>James Monroe</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <v>Democratic-  Republican</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <v>Daniel D. Tompkins</v>
+      </c>
+      <c r="E12" s="7">
+        <v>25000</v>
+      </c>
+      <c r="F12" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G12" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <v>John Quincy Adams</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <v>Democratic-  Republican</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <v>John C. Calhoun</v>
+      </c>
+      <c r="E13" s="7">
+        <v>30000</v>
+      </c>
+      <c r="F13" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G13" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <v>Andrew Jackson</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <v>John C. Calhoun</v>
+      </c>
+      <c r="E14" s="7">
+        <v>35000</v>
+      </c>
+      <c r="F14" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G14" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <v>Martin Van Buren</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <v>Richard Mentor Johnson</v>
+      </c>
+      <c r="E15" s="7">
+        <v>40000</v>
+      </c>
+      <c r="F15" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G15" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <v>William Henry Harrison</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <v>Whig</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <v>John Tyler</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45000</v>
+      </c>
+      <c r="F16" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G16" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <v>John Tyler</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <v>Whig</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <v>Office vacant</v>
+      </c>
+      <c r="E17" s="7">
+        <v>50000</v>
+      </c>
+      <c r="F17" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G17" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="str">
+        <v>James K. Polk</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <v>George M. Dallas</v>
+      </c>
+      <c r="E18" s="7">
+        <v>55000</v>
+      </c>
+      <c r="F18" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G18" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <v>Zachary Taylor</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <v>Whig</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <v>Millard Fillmore</v>
+      </c>
+      <c r="E19" s="7">
+        <v>60000</v>
+      </c>
+      <c r="F19" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G19" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="str">
+        <v>Millard Fillmore</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <v>Whig</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <v>Office vacant</v>
+      </c>
+      <c r="E20" s="7">
+        <v>65000</v>
+      </c>
+      <c r="F20" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G20" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <v>Franklin Pierce</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <v>William R. King</v>
+      </c>
+      <c r="E21" s="7">
+        <v>75000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G21" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="str">
+        <v>James Buchanan</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D22" s="6" t="str">
+        <v>John C. Breckinridge</v>
+      </c>
+      <c r="E22" s="7">
+        <v>85000</v>
+      </c>
+      <c r="F22" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G22" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6" t="str">
+        <v>Abraham Lincoln</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <v>Hannibal Hamlin</v>
+      </c>
+      <c r="E23" s="7">
+        <v>95000</v>
+      </c>
+      <c r="F23" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G23" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>17</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <v>Andrew Johnson</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <v>Office vacant</v>
+      </c>
+      <c r="E24" s="7">
+        <v>105000</v>
+      </c>
+      <c r="F24" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G24" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="str">
+        <v>Ulysses S. Grant</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <v>Schuyler Colfax</v>
+      </c>
+      <c r="E25" s="7">
+        <v>115000</v>
+      </c>
+      <c r="F25" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G25" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>19</v>
+      </c>
+      <c r="B26" s="6" t="str">
+        <v>Rutherford B. Hayes</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <v>William A. Wheeler</v>
+      </c>
+      <c r="E26" s="7">
+        <v>125000</v>
+      </c>
+      <c r="F26" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G26" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="str">
+        <v>James A. Garfield</v>
+      </c>
+      <c r="C27" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <v>Chester A. Arthur</v>
+      </c>
+      <c r="E27" s="7">
+        <v>135000</v>
+      </c>
+      <c r="F27" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G27" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>21</v>
+      </c>
+      <c r="B28" s="6" t="str">
+        <v>Chester A. Arthur</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <v>Office vacant</v>
+      </c>
+      <c r="E28" s="7">
+        <v>145000</v>
+      </c>
+      <c r="F28" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G28" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="str">
+        <v>Grover Cleveland</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <v>Thomas A. Hendricks</v>
+      </c>
+      <c r="E29" s="7">
+        <v>155000</v>
+      </c>
+      <c r="F29" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G29" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6" t="str">
+        <v>Benjamin Harrison</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <v>Levi P. Morton</v>
+      </c>
+      <c r="E30" s="7">
+        <v>165000</v>
+      </c>
+      <c r="F30" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G30" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="str">
+        <v>Grover Cleveland</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <v>Adlai Stevenson</v>
+      </c>
+      <c r="E31" s="7">
+        <v>175000</v>
+      </c>
+      <c r="F31" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G31" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>25</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <v>William Mckinley</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <v>Garret Hobart</v>
+      </c>
+      <c r="E32" s="7">
+        <v>185000</v>
+      </c>
+      <c r="F32" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G32" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="str">
+        <v>Theodore Roosevelt</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D33" s="6" t="str">
+        <v>Office vacant</v>
+      </c>
+      <c r="E33" s="7">
+        <v>195000</v>
+      </c>
+      <c r="F33" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G33" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6" t="str">
+        <v>William Howard Taft</v>
+      </c>
+      <c r="C34" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <v>James S. Sherman</v>
+      </c>
+      <c r="E34" s="7">
+        <v>205000</v>
+      </c>
+      <c r="F34" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G34" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6" t="str">
+        <v>Woodrow Wilson</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D35" s="6" t="str">
+        <v>Thomas R. Marshall</v>
+      </c>
+      <c r="E35" s="7">
+        <v>225000</v>
+      </c>
+      <c r="F35" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G35" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>28</v>
+      </c>
+      <c r="B36" s="6" t="str">
+        <v>Woodrow Wilson</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D36" s="6" t="str">
+        <v>Thomas R. Marshall</v>
+      </c>
+      <c r="E36" s="7">
+        <v>225000</v>
+      </c>
+      <c r="F36" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G36" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>29</v>
+      </c>
+      <c r="B37" s="6" t="str">
+        <v>Warren G. Harding</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D37" s="6" t="str">
+        <v>Calvin Coolidge</v>
+      </c>
+      <c r="E37" s="7">
+        <v>235000</v>
+      </c>
+      <c r="F37" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G37" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>30</v>
+      </c>
+      <c r="B38" s="6" t="str">
+        <v>Calvin Coolidge</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D38" s="6" t="str">
+        <v>Office vacant</v>
+      </c>
+      <c r="E38" s="7">
+        <v>245000</v>
+      </c>
+      <c r="F38" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G38" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>31</v>
+      </c>
+      <c r="B39" s="6" t="str">
+        <v>Herbert Hoover</v>
+      </c>
+      <c r="C39" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D39" s="6" t="str">
+        <v>Charles Curtis</v>
+      </c>
+      <c r="E39" s="7">
+        <v>255000</v>
+      </c>
+      <c r="F39" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G39" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>32</v>
+      </c>
+      <c r="B40" s="6" t="str">
+        <v>Franklin D. Roosevelt</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D40" s="6" t="str">
+        <v>John Nance Garner</v>
+      </c>
+      <c r="E40" s="7">
+        <v>265000</v>
+      </c>
+      <c r="F40" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G40" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>33</v>
+      </c>
+      <c r="B41" s="6" t="str">
+        <v>Harry S. Truman</v>
+      </c>
+      <c r="C41" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D41" s="6" t="str">
+        <v>Office vacant</v>
+      </c>
+      <c r="E41" s="7">
+        <v>275000</v>
+      </c>
+      <c r="F41" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G41" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>34</v>
+      </c>
+      <c r="B42" s="6" t="str">
+        <v>Dwight D. Eisenhower</v>
+      </c>
+      <c r="C42" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D42" s="6" t="str">
+        <v>Richard Nixon</v>
+      </c>
+      <c r="E42" s="7">
+        <v>285000</v>
+      </c>
+      <c r="F42" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G42" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>35</v>
+      </c>
+      <c r="B43" s="6" t="str">
+        <v>John F. Kennedy</v>
+      </c>
+      <c r="C43" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D43" s="6" t="str">
+        <v>Lyndon B. Johnson</v>
+      </c>
+      <c r="E43" s="7">
+        <v>295000</v>
+      </c>
+      <c r="F43" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G43" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>36</v>
+      </c>
+      <c r="B44" s="6" t="str">
+        <v>Lyndon B. Johnson</v>
+      </c>
+      <c r="C44" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D44" s="6" t="str">
+        <v>Office vacant</v>
+      </c>
+      <c r="E44" s="7">
+        <v>305000</v>
+      </c>
+      <c r="F44" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G44" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>37</v>
+      </c>
+      <c r="B45" s="6" t="str">
+        <v>Richard Nixon</v>
+      </c>
+      <c r="C45" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D45" s="6" t="str">
+        <v>Spiro Agnew</v>
+      </c>
+      <c r="E45" s="7">
+        <v>315000</v>
+      </c>
+      <c r="F45" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G45" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>38</v>
+      </c>
+      <c r="B46" s="6" t="str">
+        <v>Gerald Ford</v>
+      </c>
+      <c r="C46" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D46" s="6" t="str">
+        <v>Office vacant</v>
+      </c>
+      <c r="E46" s="7">
+        <v>325000</v>
+      </c>
+      <c r="F46" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G46" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>39</v>
+      </c>
+      <c r="B47" s="6" t="str">
+        <v>Jimmy Carter</v>
+      </c>
+      <c r="C47" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D47" s="6" t="str">
+        <v>Walter Mondale</v>
+      </c>
+      <c r="E47" s="7">
+        <v>335000</v>
+      </c>
+      <c r="F47" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G47" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>40</v>
+      </c>
+      <c r="B48" s="6" t="str">
+        <v>Ronald Reagan</v>
+      </c>
+      <c r="C48" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D48" s="6" t="str">
+        <v>George H. W. Bush</v>
+      </c>
+      <c r="E48" s="7">
+        <v>345000</v>
+      </c>
+      <c r="F48" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G48" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>41</v>
+      </c>
+      <c r="B49" s="6" t="str">
+        <v>George H. W. Bush</v>
+      </c>
+      <c r="C49" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D49" s="6" t="str">
+        <v>Dan Quayle</v>
+      </c>
+      <c r="E49" s="7">
+        <v>355000</v>
+      </c>
+      <c r="F49" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G49" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>42</v>
+      </c>
+      <c r="B50" s="6" t="str">
+        <v>Bill Clinton</v>
+      </c>
+      <c r="C50" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D50" s="6" t="str">
+        <v>Al Gore</v>
+      </c>
+      <c r="E50" s="7">
+        <v>365000</v>
+      </c>
+      <c r="F50" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G50" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>43</v>
+      </c>
+      <c r="B51" s="6" t="str">
+        <v>George W. Bush</v>
+      </c>
+      <c r="C51" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D51" s="6" t="str">
+        <v>Dick Cheney</v>
+      </c>
+      <c r="E51" s="7">
+        <v>375000</v>
+      </c>
+      <c r="F51" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G51" s="8">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>44</v>
+      </c>
+      <c r="B52" s="6" t="str">
+        <v>Barack Obama</v>
+      </c>
+      <c r="C52" s="6" t="str">
+        <v>Democratic</v>
+      </c>
+      <c r="D52" s="6" t="str">
+        <v>Joe Biden</v>
+      </c>
+      <c r="E52" s="7">
+        <v>395000</v>
+      </c>
+      <c r="F52" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G52" s="8">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>45</v>
+      </c>
+      <c r="B53" s="6" t="str">
+        <v>Donald Trump</v>
+      </c>
+      <c r="C53" s="6" t="str">
+        <v>Republican</v>
+      </c>
+      <c r="D53" s="6" t="str">
+        <v>Mike Pence</v>
+      </c>
+      <c r="E53" s="7">
+        <v>405000</v>
+      </c>
+      <c r="F53" s="8">
+        <v>44391</v>
+      </c>
+      <c r="G53" s="8">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId4" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="C4" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>15240</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId4" name="TextBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>